--- a/project/Content/EXCELs/ProjectsTasks.xlsx
+++ b/project/Content/EXCELs/ProjectsTasks.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -30,25 +30,47 @@
     <t>Data de Fim</t>
   </si>
   <si>
-    <t xml:space="preserve">fqwe                                              </t>
-  </si>
-  <si>
-    <t>cwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wdwd                                              </t>
-  </si>
-  <si>
-    <t>cwecew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fqwe2                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">few                                               </t>
-  </si>
-  <si>
-    <t>few</t>
+    <t xml:space="preserve">Base de Dados                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestão e manutenção da base de dados do Website
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cozinha                                           </t>
+  </si>
+  <si>
+    <t>Tipos de problemas que possam ser apresentados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicação mobile                                  </t>
+  </si>
+  <si>
+    <t>Problemas obtidos durante a execução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC                                                </t>
+  </si>
+  <si>
+    <t>Limpezas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website                                           </t>
+  </si>
+  <si>
+    <t>Correção de Bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teste                                             </t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teste2                                            </t>
+  </si>
+  <si>
+    <t>teste2</t>
   </si>
   <si>
     <t>Id Projeto</t>
@@ -75,22 +97,52 @@
     <t>15/06/2023 00:00:00</t>
   </si>
   <si>
-    <t>yhtgre</t>
-  </si>
-  <si>
-    <t>thgfds</t>
-  </si>
-  <si>
-    <t>10/06/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>wwer</t>
-  </si>
-  <si>
-    <t>teste1</t>
+    <t>Peixe</t>
+  </si>
+  <si>
+    <t>Amanhar peixe (salmão, atum, corvina)</t>
   </si>
   <si>
     <t>14/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>Falha no login</t>
+  </si>
+  <si>
+    <t>Parece que o login dá erro ao fazer login com contas Google</t>
+  </si>
+  <si>
+    <t>07/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>Falha nos pratos</t>
+  </si>
+  <si>
+    <t>Parece que a listagem dos pratos não funcionam como deve ser</t>
+  </si>
+  <si>
+    <t>02/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>Atualizar o Manage Projects</t>
+  </si>
+  <si>
+    <t>Correção de bugs e updates futuros</t>
+  </si>
+  <si>
+    <t>21/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>08/07/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>fgrwe</t>
+  </si>
+  <si>
+    <t>wef</t>
+  </si>
+  <si>
+    <t>22/06/2023 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -136,15 +188,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.1878080368042" customWidth="1"/>
+    <col min="2" max="2" width="15.6484632492065" customWidth="1"/>
+    <col min="3" max="3" width="45.9601936340332" customWidth="1"/>
     <col min="4" max="4" width="12.7173833847046" customWidth="1"/>
     <col min="5" max="5" width="11.2104082107544" customWidth="1"/>
   </cols>
@@ -177,15 +229,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="0">
-        <v>45073</v>
+        <v>45090</v>
       </c>
       <c r="E2" s="0">
-        <v>45074</v>
+        <v>45288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -194,60 +246,94 @@
         <v>8</v>
       </c>
       <c r="D3" s="0">
-        <v>45069</v>
+        <v>45084</v>
       </c>
       <c r="E3" s="0">
-        <v>45079</v>
+        <v>45398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0">
-        <v>45075</v>
+        <v>45069</v>
       </c>
       <c r="E4" s="0">
-        <v>45086</v>
+        <v>45268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0">
         <v>45069</v>
       </c>
       <c r="E5" s="0">
-        <v>45079</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0">
         <v>45069</v>
       </c>
       <c r="E6" s="0">
+        <v>45239</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0">
+        <v>45069</v>
+      </c>
+      <c r="E7" s="0">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0">
+        <v>45084</v>
+      </c>
+      <c r="E8" s="0">
         <v>45085</v>
       </c>
     </row>
@@ -258,33 +344,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.31978416442871" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6554412841797" customWidth="1"/>
+    <col min="2" max="2" width="15.6484632492065" customWidth="1"/>
+    <col min="3" max="3" width="25.2785797119141" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.4959354400635" customWidth="1"/>
+    <col min="5" max="5" width="56.5639114379883" customWidth="1"/>
     <col min="6" max="6" width="12.7173833847046" customWidth="1"/>
     <col min="7" max="7" width="19.3192253112793" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -304,72 +390,168 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>25</v>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="Projects!A2" display="fqwe                                              "/>
-    <hyperlink ref="B3" location="Projects!A3" display="wdwd                                              "/>
-    <hyperlink ref="B4" location="Projects!A6" display="few                                               "/>
+    <hyperlink ref="B2" location="Projects!A2" display="Base de Dados                                     "/>
+    <hyperlink ref="B3" location="Projects!A3" display="Cozinha                                           "/>
+    <hyperlink ref="B4" location="Projects!A4" display="Aplicação mobile                                  "/>
+    <hyperlink ref="B5" location="Projects!A4" display="Aplicação mobile                                  "/>
+    <hyperlink ref="B6" location="Projects!A6" display="Website                                           "/>
+    <hyperlink ref="B7" location="Projects!A6" display="Website                                           "/>
+    <hyperlink ref="B8" location="Projects!A6" display="Website                                           "/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/project/Content/EXCELs/ProjectsTasks.xlsx
+++ b/project/Content/EXCELs/ProjectsTasks.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -67,82 +67,70 @@
     <t>teste</t>
   </si>
   <si>
-    <t xml:space="preserve">teste2                                            </t>
+    <t>Id Projeto</t>
+  </si>
+  <si>
+    <t>Tarefa</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Tabela users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1         </t>
+  </si>
+  <si>
+    <t>Problemas na autenticação</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>15/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>Peixe</t>
+  </si>
+  <si>
+    <t>Amanhar peixe (salmão, atum, corvina)</t>
+  </si>
+  <si>
+    <t>14/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>Falha no login</t>
+  </si>
+  <si>
+    <t>Parece que o login dá erro ao fazer login com contas Google</t>
+  </si>
+  <si>
+    <t>07/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>Falha nos pratos</t>
+  </si>
+  <si>
+    <t>Parece que a listagem dos pratos não funcionam como deve ser</t>
+  </si>
+  <si>
+    <t>02/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>Atualizar o Manage Projects</t>
+  </si>
+  <si>
+    <t>Correção de bugs e updates futuros</t>
+  </si>
+  <si>
+    <t>21/06/2023 00:00:00</t>
   </si>
   <si>
     <t>teste2</t>
   </si>
   <si>
-    <t>Id Projeto</t>
-  </si>
-  <si>
-    <t>Tarefa</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Tabela users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1         </t>
-  </si>
-  <si>
-    <t>Problemas na autenticação</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>15/06/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Peixe</t>
-  </si>
-  <si>
-    <t>Amanhar peixe (salmão, atum, corvina)</t>
-  </si>
-  <si>
-    <t>14/06/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Falha no login</t>
-  </si>
-  <si>
-    <t>Parece que o login dá erro ao fazer login com contas Google</t>
-  </si>
-  <si>
-    <t>07/06/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Falha nos pratos</t>
-  </si>
-  <si>
-    <t>Parece que a listagem dos pratos não funcionam como deve ser</t>
-  </si>
-  <si>
-    <t>02/06/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>Atualizar o Manage Projects</t>
-  </si>
-  <si>
-    <t>Correção de bugs e updates futuros</t>
-  </si>
-  <si>
-    <t>21/06/2023 00:00:00</t>
-  </si>
-  <si>
     <t>08/07/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>fgrwe</t>
-  </si>
-  <si>
-    <t>wef</t>
-  </si>
-  <si>
-    <t>22/06/2023 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -188,7 +176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -320,23 +308,6 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="0">
-        <v>45084</v>
-      </c>
-      <c r="E8" s="0">
-        <v>45085</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
@@ -344,7 +315,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -361,16 +332,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -390,19 +361,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -413,19 +384,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -436,19 +407,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -459,19 +430,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -482,19 +453,19 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -505,42 +476,19 @@
         <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +499,6 @@
     <hyperlink ref="B5" location="Projects!A4" display="Aplicação mobile                                  "/>
     <hyperlink ref="B6" location="Projects!A6" display="Website                                           "/>
     <hyperlink ref="B7" location="Projects!A6" display="Website                                           "/>
-    <hyperlink ref="B8" location="Projects!A6" display="Website                                           "/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/project/Content/EXCELs/ProjectsTasks.xlsx
+++ b/project/Content/EXCELs/ProjectsTasks.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -33,8 +33,7 @@
     <t xml:space="preserve">Base de Dados                                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Gestão e manutenção da base de dados do Website
-</t>
+    <t>Gestão e manutenção da base de dados do Website</t>
   </si>
   <si>
     <t xml:space="preserve">Cozinha                                           </t>
@@ -88,7 +87,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>15/06/2023 00:00:00</t>
+    <t>01/06/2023 00:00:00</t>
   </si>
   <si>
     <t>Peixe</t>
@@ -125,12 +124,6 @@
   </si>
   <si>
     <t>21/06/2023 00:00:00</t>
-  </si>
-  <si>
-    <t>teste2</t>
-  </si>
-  <si>
-    <t>08/07/2023 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -184,7 +177,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="15.6484632492065" customWidth="1"/>
-    <col min="3" max="3" width="45.9601936340332" customWidth="1"/>
+    <col min="3" max="3" width="46.1675224304199" customWidth="1"/>
     <col min="4" max="4" width="12.7173833847046" customWidth="1"/>
     <col min="5" max="5" width="11.2104082107544" customWidth="1"/>
   </cols>
@@ -315,7 +308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,29 +461,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="Projects!A2" display="Base de Dados                                     "/>
@@ -498,7 +468,6 @@
     <hyperlink ref="B4" location="Projects!A4" display="Aplicação mobile                                  "/>
     <hyperlink ref="B5" location="Projects!A4" display="Aplicação mobile                                  "/>
     <hyperlink ref="B6" location="Projects!A6" display="Website                                           "/>
-    <hyperlink ref="B7" location="Projects!A6" display="Website                                           "/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>
